--- a/StreamRes/ExcelTable/Excel/Character.xlsx
+++ b/StreamRes/ExcelTable/Excel/Character.xlsx
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Id</t>
   </si>
@@ -71,6 +71,27 @@
   </si>
   <si>
     <t>俯仰范围</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>默认玩家</t>
+  </si>
+  <si>
+    <t>101</t>
+  </si>
+  <si>
+    <t>True</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>(0.00, 0.70, 0.00)</t>
+  </si>
+  <si>
+    <t>90</t>
   </si>
 </sst>
 </file>
@@ -88,7 +109,6 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -96,7 +116,6 @@
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -104,14 +123,12 @@
       <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -119,7 +136,6 @@
       <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -127,7 +143,6 @@
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
       <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -135,7 +150,6 @@
       <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -143,7 +157,6 @@
       <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -151,14 +164,12 @@
       <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -166,7 +177,6 @@
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -174,7 +184,6 @@
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -182,14 +191,12 @@
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -197,35 +204,30 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -677,8 +679,153 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+  <cellXfs count="50">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
+    <xf numFmtId="43" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="1" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="2" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="3" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="4" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="5" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="6" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="7" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="2" applyFill="1" borderId="1" applyBorder="1" xfId="8" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="9" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="10" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="5" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="11" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="0" applyFill="1" borderId="2" applyBorder="1" xfId="12" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="0" applyFill="1" borderId="2" applyBorder="1" xfId="13" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="8" applyFont="1" fillId="0" applyFill="1" borderId="3" applyBorder="1" xfId="14" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="8" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="15" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="9" applyFont="1" fillId="3" applyFill="1" borderId="4" applyBorder="1" xfId="16" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="10" applyFont="1" fillId="4" applyFill="1" borderId="5" applyBorder="1" xfId="17" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="11" applyFont="1" fillId="4" applyFill="1" borderId="4" applyBorder="1" xfId="18" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="12" applyFont="1" fillId="5" applyFill="1" borderId="6" applyBorder="1" xfId="19" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="13" applyFont="1" fillId="0" applyFill="1" borderId="7" applyBorder="1" xfId="20" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="14" applyFont="1" fillId="0" applyFill="1" borderId="8" applyBorder="1" xfId="21" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="15" applyFont="1" fillId="6" applyFill="1" borderId="0" applyBorder="1" xfId="22" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="16" applyFont="1" fillId="7" applyFill="1" borderId="0" applyBorder="1" xfId="23" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="17" applyFont="1" fillId="8" applyFill="1" borderId="0" applyBorder="1" xfId="24" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="9" applyFill="1" borderId="0" applyBorder="1" xfId="25" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="10" applyFill="1" borderId="0" applyBorder="1" xfId="26" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="11" applyFill="1" borderId="0" applyBorder="1" xfId="27" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="12" applyFill="1" borderId="0" applyBorder="1" xfId="28" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="13" applyFill="1" borderId="0" applyBorder="1" xfId="29" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="14" applyFill="1" borderId="0" applyBorder="1" xfId="30" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="15" applyFill="1" borderId="0" applyBorder="1" xfId="31" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="16" applyFill="1" borderId="0" applyBorder="1" xfId="32" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="17" applyFill="1" borderId="0" applyBorder="1" xfId="33" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="18" applyFill="1" borderId="0" applyBorder="1" xfId="34" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="19" applyFill="1" borderId="0" applyBorder="1" xfId="35" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="20" applyFill="1" borderId="0" applyBorder="1" xfId="36" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="21" applyFill="1" borderId="0" applyBorder="1" xfId="37" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="22" applyFill="1" borderId="0" applyBorder="1" xfId="38" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="23" applyFill="1" borderId="0" applyBorder="1" xfId="39" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="24" applyFill="1" borderId="0" applyBorder="1" xfId="40" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="25" applyFill="1" borderId="0" applyBorder="1" xfId="41" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="26" applyFill="1" borderId="0" applyBorder="1" xfId="42" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="27" applyFill="1" borderId="0" applyBorder="1" xfId="43" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="28" applyFill="1" borderId="0" applyBorder="1" xfId="44" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="29" applyFill="1" borderId="0" applyBorder="1" xfId="45" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="30" applyFill="1" borderId="0" applyBorder="1" xfId="46" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="31" applyFill="1" borderId="0" applyBorder="1" xfId="47" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="32" applyFill="1" borderId="0" applyBorder="1" xfId="48" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -998,96 +1145,116 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="I1" sqref="I$1:P$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="2" outlineLevelCol="7"/>
-  <cols>
-    <col min="3" max="3" width="13.9166666666667" customWidth="1"/>
-    <col min="4" max="4" width="12.15" customWidth="1"/>
-    <col min="5" max="5" width="17.8416666666667" customWidth="1"/>
-    <col min="7" max="7" width="14.8083333333333" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" t="s">
+    <row r="1">
+      <c r="A1" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="49" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
-      <c r="A2" t="s">
+    <row r="2">
+      <c r="A2" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="49" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
-      <c r="A3" t="s">
+    <row r="3">
+      <c r="A3" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="49" t="s">
         <v>18</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="49" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="49" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="49" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="49" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="49" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="49" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="49" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="49" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/StreamRes/ExcelTable/Excel/Character.xlsx
+++ b/StreamRes/ExcelTable/Excel/Character.xlsx
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525" fullCalcOnLoad="1"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="28">
   <si>
     <t>Id</t>
   </si>
@@ -40,6 +40,9 @@
     <t>MaxPitch</t>
   </si>
   <si>
+    <t>CameraOnly</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
@@ -71,6 +74,9 @@
   </si>
   <si>
     <t>俯仰范围</t>
+  </si>
+  <si>
+    <t>只使用相机</t>
   </si>
   <si>
     <t>1</t>
@@ -109,6 +115,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -116,6 +123,7 @@
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -123,12 +131,14 @@
       <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -136,6 +146,7 @@
       <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -143,6 +154,7 @@
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -150,6 +162,7 @@
       <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -157,6 +170,7 @@
       <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -164,12 +178,14 @@
       <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -177,6 +193,7 @@
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -184,6 +201,7 @@
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -191,12 +209,14 @@
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -204,30 +224,35 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -679,153 +704,8 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="50">
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
-    <xf numFmtId="43" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="1" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="2" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="3" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="4" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="5" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="6" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="7" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="2" applyFill="1" borderId="1" applyBorder="1" xfId="8" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="9" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="10" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="5" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="11" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="0" applyFill="1" borderId="2" applyBorder="1" xfId="12" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="0" applyFill="1" borderId="2" applyBorder="1" xfId="13" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="8" applyFont="1" fillId="0" applyFill="1" borderId="3" applyBorder="1" xfId="14" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="8" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="15" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="9" applyFont="1" fillId="3" applyFill="1" borderId="4" applyBorder="1" xfId="16" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="10" applyFont="1" fillId="4" applyFill="1" borderId="5" applyBorder="1" xfId="17" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="11" applyFont="1" fillId="4" applyFill="1" borderId="4" applyBorder="1" xfId="18" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="12" applyFont="1" fillId="5" applyFill="1" borderId="6" applyBorder="1" xfId="19" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="13" applyFont="1" fillId="0" applyFill="1" borderId="7" applyBorder="1" xfId="20" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="14" applyFont="1" fillId="0" applyFill="1" borderId="8" applyBorder="1" xfId="21" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="15" applyFont="1" fillId="6" applyFill="1" borderId="0" applyBorder="1" xfId="22" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="16" applyFont="1" fillId="7" applyFill="1" borderId="0" applyBorder="1" xfId="23" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="17" applyFont="1" fillId="8" applyFill="1" borderId="0" applyBorder="1" xfId="24" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="9" applyFill="1" borderId="0" applyBorder="1" xfId="25" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="10" applyFill="1" borderId="0" applyBorder="1" xfId="26" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="11" applyFill="1" borderId="0" applyBorder="1" xfId="27" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="12" applyFill="1" borderId="0" applyBorder="1" xfId="28" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="13" applyFill="1" borderId="0" applyBorder="1" xfId="29" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="14" applyFill="1" borderId="0" applyBorder="1" xfId="30" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="15" applyFill="1" borderId="0" applyBorder="1" xfId="31" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="16" applyFill="1" borderId="0" applyBorder="1" xfId="32" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="17" applyFill="1" borderId="0" applyBorder="1" xfId="33" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="18" applyFill="1" borderId="0" applyBorder="1" xfId="34" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="19" applyFill="1" borderId="0" applyBorder="1" xfId="35" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="20" applyFill="1" borderId="0" applyBorder="1" xfId="36" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="21" applyFill="1" borderId="0" applyBorder="1" xfId="37" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="22" applyFill="1" borderId="0" applyBorder="1" xfId="38" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="23" applyFill="1" borderId="0" applyBorder="1" xfId="39" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="24" applyFill="1" borderId="0" applyBorder="1" xfId="40" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="25" applyFill="1" borderId="0" applyBorder="1" xfId="41" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="26" applyFill="1" borderId="0" applyBorder="1" xfId="42" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="27" applyFill="1" borderId="0" applyBorder="1" xfId="43" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="28" applyFill="1" borderId="0" applyBorder="1" xfId="44" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="29" applyFill="1" borderId="0" applyBorder="1" xfId="45" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="30" applyFill="1" borderId="0" applyBorder="1" xfId="46" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="31" applyFill="1" borderId="0" applyBorder="1" xfId="47" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="32" applyFill="1" borderId="0" applyBorder="1" xfId="48" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
+  <cellXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1145,116 +1025,128 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I1" sqref="I$1:P$1048576"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="2" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="3"/>
+  <cols>
+    <col min="9" max="9" width="20.4833333333333" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="49" t="s">
+    <row r="1" spans="1:9">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="49" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="49" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="49" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="49" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="49" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="49" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="49" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2">
-      <c r="A2" s="49" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="49" t="s">
+    <row r="2" spans="1:9">
+      <c r="A2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="49" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="49" t="s">
+      <c r="B2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="49" t="s">
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="49" t="s">
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="49" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" s="49" t="s">
-        <v>11</v>
-      </c>
     </row>
-    <row r="3">
-      <c r="A3" s="49" t="s">
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="49" t="s">
+      <c r="B3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="49" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="49" t="s">
+      <c r="C3" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="49" t="s">
+      <c r="D3" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="49" t="s">
+      <c r="E3" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="49" t="s">
+      <c r="F3" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="49" t="s">
+      <c r="G3" t="s">
         <v>18</v>
       </c>
+      <c r="H3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="4">
-      <c r="A4" s="49" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="49" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="49" t="s">
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="49" t="s">
+      <c r="B4" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="49" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="49" t="s">
+      <c r="C4" t="s">
         <v>23</v>
       </c>
-      <c r="G4" s="49" t="s">
+      <c r="D4" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="49" t="s">
+      <c r="E4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" t="s">
         <v>25</v>
+      </c>
+      <c r="G4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/StreamRes/ExcelTable/Excel/Character.xlsx
+++ b/StreamRes/ExcelTable/Excel/Character.xlsx
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>Id</t>
   </si>
@@ -98,6 +98,9 @@
   </si>
   <si>
     <t>90</t>
+  </si>
+  <si>
+    <t>False</t>
   </si>
 </sst>
 </file>
@@ -115,7 +118,6 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -123,7 +125,6 @@
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -131,14 +132,12 @@
       <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -146,7 +145,6 @@
       <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -154,7 +152,6 @@
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
       <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -162,7 +159,6 @@
       <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -170,7 +166,6 @@
       <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -178,14 +173,12 @@
       <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -193,7 +186,6 @@
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -201,7 +193,6 @@
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -209,14 +200,12 @@
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -224,35 +213,30 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -704,8 +688,153 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+  <cellXfs count="50">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
+    <xf numFmtId="43" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="1" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="2" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="3" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="4" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="5" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="6" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="7" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="2" applyFill="1" borderId="1" applyBorder="1" xfId="8" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="9" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="10" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="5" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="11" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="0" applyFill="1" borderId="2" applyBorder="1" xfId="12" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="0" applyFill="1" borderId="2" applyBorder="1" xfId="13" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="8" applyFont="1" fillId="0" applyFill="1" borderId="3" applyBorder="1" xfId="14" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="8" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="15" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="9" applyFont="1" fillId="3" applyFill="1" borderId="4" applyBorder="1" xfId="16" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="10" applyFont="1" fillId="4" applyFill="1" borderId="5" applyBorder="1" xfId="17" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="11" applyFont="1" fillId="4" applyFill="1" borderId="4" applyBorder="1" xfId="18" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="12" applyFont="1" fillId="5" applyFill="1" borderId="6" applyBorder="1" xfId="19" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="13" applyFont="1" fillId="0" applyFill="1" borderId="7" applyBorder="1" xfId="20" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="14" applyFont="1" fillId="0" applyFill="1" borderId="8" applyBorder="1" xfId="21" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="15" applyFont="1" fillId="6" applyFill="1" borderId="0" applyBorder="1" xfId="22" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="16" applyFont="1" fillId="7" applyFill="1" borderId="0" applyBorder="1" xfId="23" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="17" applyFont="1" fillId="8" applyFill="1" borderId="0" applyBorder="1" xfId="24" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="9" applyFill="1" borderId="0" applyBorder="1" xfId="25" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="10" applyFill="1" borderId="0" applyBorder="1" xfId="26" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="11" applyFill="1" borderId="0" applyBorder="1" xfId="27" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="12" applyFill="1" borderId="0" applyBorder="1" xfId="28" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="13" applyFill="1" borderId="0" applyBorder="1" xfId="29" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="14" applyFill="1" borderId="0" applyBorder="1" xfId="30" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="15" applyFill="1" borderId="0" applyBorder="1" xfId="31" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="16" applyFill="1" borderId="0" applyBorder="1" xfId="32" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="17" applyFill="1" borderId="0" applyBorder="1" xfId="33" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="18" applyFill="1" borderId="0" applyBorder="1" xfId="34" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="19" applyFill="1" borderId="0" applyBorder="1" xfId="35" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="20" applyFill="1" borderId="0" applyBorder="1" xfId="36" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="21" applyFill="1" borderId="0" applyBorder="1" xfId="37" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="22" applyFill="1" borderId="0" applyBorder="1" xfId="38" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="23" applyFill="1" borderId="0" applyBorder="1" xfId="39" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="24" applyFill="1" borderId="0" applyBorder="1" xfId="40" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="25" applyFill="1" borderId="0" applyBorder="1" xfId="41" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="26" applyFill="1" borderId="0" applyBorder="1" xfId="42" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="27" applyFill="1" borderId="0" applyBorder="1" xfId="43" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="28" applyFill="1" borderId="0" applyBorder="1" xfId="44" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="29" applyFill="1" borderId="0" applyBorder="1" xfId="45" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="30" applyFill="1" borderId="0" applyBorder="1" xfId="46" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="31" applyFill="1" borderId="0" applyBorder="1" xfId="47" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="32" applyFill="1" borderId="0" applyBorder="1" xfId="48" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1032,121 +1161,121 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="3"/>
-  <cols>
-    <col min="9" max="9" width="20.4833333333333" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" t="s">
+    <row r="1">
+      <c r="A1" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="49" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
-      <c r="A2" t="s">
+    <row r="2">
+      <c r="A2" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="49" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
-      <c r="A3" t="s">
+    <row r="3">
+      <c r="A3" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" s="49" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
-      <c r="A4" t="s">
+    <row r="4">
+      <c r="A4" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="49" t="s">
         <v>27</v>
+      </c>
+      <c r="I4" s="49" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/StreamRes/ExcelTable/Excel/Character.xlsx
+++ b/StreamRes/ExcelTable/Excel/Character.xlsx
@@ -4,17 +4,17 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="18400"/>
+    <workbookView windowWidth="30720" windowHeight="13380"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525" fullCalcOnLoad="1"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="31">
   <si>
     <t>Id</t>
   </si>
@@ -37,7 +37,10 @@
     <t>CameraOffset</t>
   </si>
   <si>
-    <t>MaxPitch</t>
+    <t>XMaxPitch</t>
+  </si>
+  <si>
+    <t>YMaxPitch</t>
   </si>
   <si>
     <t>CameraOnly</t>
@@ -74,6 +77,9 @@
   </si>
   <si>
     <t>俯仰范围</t>
+  </si>
+  <si>
+    <t>左右范围</t>
   </si>
   <si>
     <t>只使用相机</t>
@@ -118,6 +124,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -125,6 +132,7 @@
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -132,12 +140,14 @@
       <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -145,6 +155,7 @@
       <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -152,6 +163,7 @@
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -159,6 +171,7 @@
       <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -166,6 +179,7 @@
       <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -173,12 +187,14 @@
       <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -186,6 +202,7 @@
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -193,6 +210,7 @@
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -200,12 +218,14 @@
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -213,30 +233,35 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -688,153 +713,8 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="50">
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
-    <xf numFmtId="43" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="1" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="2" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="3" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="4" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="5" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="6" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="7" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="2" applyFill="1" borderId="1" applyBorder="1" xfId="8" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="9" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="10" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="5" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="11" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="0" applyFill="1" borderId="2" applyBorder="1" xfId="12" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="0" applyFill="1" borderId="2" applyBorder="1" xfId="13" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="8" applyFont="1" fillId="0" applyFill="1" borderId="3" applyBorder="1" xfId="14" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="8" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="15" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="9" applyFont="1" fillId="3" applyFill="1" borderId="4" applyBorder="1" xfId="16" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="10" applyFont="1" fillId="4" applyFill="1" borderId="5" applyBorder="1" xfId="17" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="11" applyFont="1" fillId="4" applyFill="1" borderId="4" applyBorder="1" xfId="18" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="12" applyFont="1" fillId="5" applyFill="1" borderId="6" applyBorder="1" xfId="19" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="13" applyFont="1" fillId="0" applyFill="1" borderId="7" applyBorder="1" xfId="20" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="14" applyFont="1" fillId="0" applyFill="1" borderId="8" applyBorder="1" xfId="21" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="15" applyFont="1" fillId="6" applyFill="1" borderId="0" applyBorder="1" xfId="22" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="16" applyFont="1" fillId="7" applyFill="1" borderId="0" applyBorder="1" xfId="23" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="17" applyFont="1" fillId="8" applyFill="1" borderId="0" applyBorder="1" xfId="24" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="9" applyFill="1" borderId="0" applyBorder="1" xfId="25" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="10" applyFill="1" borderId="0" applyBorder="1" xfId="26" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="11" applyFill="1" borderId="0" applyBorder="1" xfId="27" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="12" applyFill="1" borderId="0" applyBorder="1" xfId="28" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="13" applyFill="1" borderId="0" applyBorder="1" xfId="29" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="14" applyFill="1" borderId="0" applyBorder="1" xfId="30" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="15" applyFill="1" borderId="0" applyBorder="1" xfId="31" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="16" applyFill="1" borderId="0" applyBorder="1" xfId="32" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="17" applyFill="1" borderId="0" applyBorder="1" xfId="33" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="18" applyFill="1" borderId="0" applyBorder="1" xfId="34" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="19" applyFill="1" borderId="0" applyBorder="1" xfId="35" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="20" applyFill="1" borderId="0" applyBorder="1" xfId="36" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="21" applyFill="1" borderId="0" applyBorder="1" xfId="37" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="22" applyFill="1" borderId="0" applyBorder="1" xfId="38" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="23" applyFill="1" borderId="0" applyBorder="1" xfId="39" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="24" applyFill="1" borderId="0" applyBorder="1" xfId="40" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="25" applyFill="1" borderId="0" applyBorder="1" xfId="41" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="26" applyFill="1" borderId="0" applyBorder="1" xfId="42" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="27" applyFill="1" borderId="0" applyBorder="1" xfId="43" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="28" applyFill="1" borderId="0" applyBorder="1" xfId="44" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="29" applyFill="1" borderId="0" applyBorder="1" xfId="45" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="30" applyFill="1" borderId="0" applyBorder="1" xfId="46" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="31" applyFill="1" borderId="0" applyBorder="1" xfId="47" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="32" applyFill="1" borderId="0" applyBorder="1" xfId="48" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
+  <cellXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1154,128 +1034,143 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="3"/>
+  <cols>
+    <col min="8" max="8" width="32.4166666666667" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="49" t="s">
+    <row r="1" spans="1:10">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="49" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="49" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="49" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="49" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="49" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="49" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="49" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="49" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2">
-      <c r="A2" s="49" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="49" t="s">
+    <row r="2" spans="1:10">
+      <c r="A2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="49" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="49" t="s">
+      <c r="B2" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="49" t="s">
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="49" t="s">
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="49" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" s="49" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" s="49" t="s">
-        <v>11</v>
-      </c>
     </row>
-    <row r="3">
-      <c r="A3" s="49" t="s">
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="49" t="s">
+      <c r="B3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="49" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="49" t="s">
+      <c r="C3" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="49" t="s">
+      <c r="D3" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="49" t="s">
+      <c r="E3" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="49" t="s">
+      <c r="F3" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="49" t="s">
+      <c r="G3" t="s">
         <v>19</v>
       </c>
-      <c r="I3" s="49" t="s">
+      <c r="H3" t="s">
         <v>20</v>
       </c>
+      <c r="I3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="4">
-      <c r="A4" s="49" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" s="49" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" s="49" t="s">
+    <row r="4" spans="1:10">
+      <c r="A4" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="49" t="s">
+      <c r="B4" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="49" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="49" t="s">
+      <c r="C4" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="49" t="s">
+      <c r="D4" t="s">
         <v>26</v>
       </c>
-      <c r="H4" s="49" t="s">
+      <c r="E4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" t="s">
         <v>27</v>
       </c>
-      <c r="I4" s="49" t="s">
+      <c r="G4" t="s">
         <v>28</v>
+      </c>
+      <c r="H4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4">
+        <v>360</v>
+      </c>
+      <c r="J4" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
